--- a/Figure4/Figure4D/data/summary_statistics_9AB.xlsx
+++ b/Figure4/Figure4D/data/summary_statistics_9AB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Dropbox\Time_kill\ClassicalTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\PDfunction\Figure4\Figure4D\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -263,14 +263,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,14 +276,8 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -297,17 +285,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCFD4D8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCFD4D8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -327,7 +304,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
@@ -1541,12 +1518,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2879,7 +2850,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,32 +2887,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="406" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="341" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="407">
+      <c r="B2" s="405">
         <v>1.1132555</v>
       </c>
-      <c r="C2" s="407">
+      <c r="C2" s="405">
         <v>0.10347973000000001</v>
       </c>
-      <c r="D2" s="407">
+      <c r="D2" s="405">
         <v>0.70222810000000002</v>
       </c>
-      <c r="E2" s="407">
+      <c r="E2" s="405">
         <v>0.38702905999999998</v>
       </c>
-      <c r="F2" s="407">
+      <c r="F2" s="405">
         <v>-8.8746305000000003</v>
       </c>
-      <c r="G2" s="407">
+      <c r="G2" s="405">
         <v>2.1634449999999998</v>
       </c>
-      <c r="H2" s="407">
+      <c r="H2" s="405">
         <v>1.7636545999999999E-3</v>
       </c>
-      <c r="I2" s="407">
+      <c r="I2" s="405">
         <v>6.2617440000000004E-5</v>
       </c>
     </row>
